--- a/src/demo/zxxt_demo_131-xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_demo_131-xlsx.w3mi.data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\abapgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,12 +62,6 @@
     <t>PERSONNEL ID NUMBER</t>
   </si>
   <si>
-    <t>Lower case</t>
-  </si>
-  <si>
-    <t>Upper case</t>
-  </si>
-  <si>
     <t>CamelCase</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>{R:to_mixed( |{ v-NACHN }_{ v-VORNA }_{ v-MIDNM }| )}</t>
+  </si>
+  <si>
+    <t>UPPER CASE</t>
+  </si>
+  <si>
+    <t>lower case</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -1045,61 +1045,61 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="T5" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="21"/>
@@ -1109,61 +1109,61 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="T6" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="V6" s="20"/>
       <c r="W6" s="21"/>
@@ -1173,61 +1173,61 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="V7" s="23"/>
       <c r="W7" s="24"/>
@@ -1246,35 +1246,35 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
@@ -1321,37 +1321,37 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="L14" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
